--- a/production_recipe_management_tool_v1.1/data/Procurement Costs/Raw material/August-2024/Raw_Material_Costs_06-Aug-2024.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Procurement Costs/Raw material/August-2024/Raw_Material_Costs_06-Aug-2024.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/Procurement Costs/Raw material/August-2024/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_13891752F70B7C474A3C349E7037FBCE74529FC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7951F63-C74A-42DA-AB12-DC7E532FA08B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +158,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +210,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -486,7 +512,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -506,7 +532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -526,7 +552,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -546,7 +572,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -566,7 +592,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -586,7 +612,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -600,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F8">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -626,7 +652,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -646,7 +672,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -666,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -686,7 +712,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -706,7 +732,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -726,7 +752,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -746,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -766,7 +792,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -783,7 +809,7 @@
         <v>1050</v>
       </c>
       <c r="F17">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
